--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/41.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/41.xlsx
@@ -479,13 +479,13 @@
         <v>-20.78267455667372</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.183493803745108</v>
+        <v>-9.149322893328204</v>
       </c>
       <c r="F2" t="n">
-        <v>5.321913652899821</v>
+        <v>5.362211761046654</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.71765267520512</v>
+        <v>-15.76101438221692</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-20.62117851576565</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.53453771984031</v>
+        <v>-9.504962207720851</v>
       </c>
       <c r="F3" t="n">
-        <v>5.212383447325941</v>
+        <v>5.249958356481694</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.24909224880259</v>
+        <v>-15.28959983379489</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-20.17977550273997</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.614806628562933</v>
+        <v>-9.581146317956854</v>
       </c>
       <c r="F4" t="n">
-        <v>5.377922524456725</v>
+        <v>5.418115894180824</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.51820135036039</v>
+        <v>-14.55635232084118</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-19.45599600378198</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.53884827082912</v>
+        <v>-10.51159009631264</v>
       </c>
       <c r="F5" t="n">
-        <v>5.437440133175212</v>
+        <v>5.479492609902835</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.65154327144949</v>
+        <v>-13.68470607454758</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-18.46609831300704</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.12699379138798</v>
+        <v>-11.09748374078273</v>
       </c>
       <c r="F6" t="n">
-        <v>5.66042823517549</v>
+        <v>5.706486956572682</v>
       </c>
       <c r="G6" t="n">
-        <v>-12.89031750732301</v>
+        <v>-12.91696034360592</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-17.24335711464511</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.89307679986874</v>
+        <v>-11.86558296390111</v>
       </c>
       <c r="F7" t="n">
-        <v>5.961315539084039</v>
+        <v>6.008631121554036</v>
       </c>
       <c r="G7" t="n">
-        <v>-11.66863545225303</v>
+        <v>-11.68950458298274</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.83287802908305</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.6849516449477</v>
+        <v>-12.65680319383798</v>
       </c>
       <c r="F8" t="n">
-        <v>6.203025634147985</v>
+        <v>6.250576878069134</v>
       </c>
       <c r="G8" t="n">
-        <v>-10.99379270227626</v>
+        <v>-11.01047229609661</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.27647741252284</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.3865681542358</v>
+        <v>-13.35900885675396</v>
       </c>
       <c r="F9" t="n">
-        <v>6.270896132079494</v>
+        <v>6.319023437325678</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.899250000102272</v>
+        <v>-9.907890919977811</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-12.63016493513794</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.40495293077946</v>
+        <v>-14.37596657228788</v>
       </c>
       <c r="F10" t="n">
-        <v>6.447066159117759</v>
+        <v>6.492993957486534</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.31465249361352</v>
+        <v>-9.321971090902046</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.92647449674867</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.31836362313816</v>
+        <v>-15.2932133093792</v>
       </c>
       <c r="F11" t="n">
-        <v>6.664398386290411</v>
+        <v>6.712159107057029</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.595348283186249</v>
+        <v>-8.596618236561897</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.22494631347794</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.50015343144941</v>
+        <v>-16.477935793527</v>
       </c>
       <c r="F12" t="n">
-        <v>6.621560371392285</v>
+        <v>6.66688592383034</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.181487498056446</v>
+        <v>-8.181173282788244</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-7.552815308803461</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.38902914828271</v>
+        <v>-17.36660203351484</v>
       </c>
       <c r="F13" t="n">
-        <v>6.47749267092193</v>
+        <v>6.518366840393799</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.846887514330453</v>
+        <v>-7.843012192689302</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.974768769868295</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.69629558702906</v>
+        <v>-18.67338405705604</v>
       </c>
       <c r="F14" t="n">
-        <v>6.549186121283222</v>
+        <v>6.589536598641422</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.97648503680682</v>
+        <v>-6.965304210179986</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-4.515268164251346</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.74170287663805</v>
+        <v>-19.72206442237546</v>
       </c>
       <c r="F15" t="n">
-        <v>6.504960322283872</v>
+        <v>6.540361909167899</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.501195166743639</v>
+        <v>-6.489739401757128</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.224170656427305</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.6964197844624</v>
+        <v>-20.67792036054703</v>
       </c>
       <c r="F16" t="n">
-        <v>6.440572376908263</v>
+        <v>6.470920334895384</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.915380076090606</v>
+        <v>-5.903361342081902</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-2.108160321269795</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.70855953255055</v>
+        <v>-21.68937930888742</v>
       </c>
       <c r="F17" t="n">
-        <v>6.736955928639258</v>
+        <v>6.769162993629904</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.914529076405894</v>
+        <v>-5.90144986586701</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.187304870828538</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.54092887031897</v>
+        <v>-22.5212642314507</v>
       </c>
       <c r="F18" t="n">
-        <v>7.079162540316294</v>
+        <v>7.111762374392192</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.400040851634585</v>
+        <v>-5.389370624818578</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.4466947000705173</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.16167422495373</v>
+        <v>-23.13745346469654</v>
       </c>
       <c r="F19" t="n">
-        <v>7.387564826055993</v>
+        <v>7.420583613822826</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.543044892220879</v>
+        <v>-4.52430980685437</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.1197543719498836</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.04529992834751</v>
+        <v>-24.02580548941618</v>
       </c>
       <c r="F20" t="n">
-        <v>7.588453120859437</v>
+        <v>7.621550462443321</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.023175730981621</v>
+        <v>-3.999661955077881</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5386392700716538</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.27895825716379</v>
+        <v>-24.255365927443</v>
       </c>
       <c r="F21" t="n">
-        <v>7.463945320834623</v>
+        <v>7.494974078569514</v>
       </c>
       <c r="G21" t="n">
-        <v>-3.950186142638998</v>
+        <v>-3.925310767239719</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8282172740649892</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.96160401963423</v>
+        <v>-24.93755345931398</v>
       </c>
       <c r="F22" t="n">
-        <v>7.846685702109642</v>
+        <v>7.87912842855144</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.254176322321036</v>
+        <v>-4.232691853357763</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.012872756495069</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.14400598282516</v>
+        <v>-25.12003397632196</v>
       </c>
       <c r="F23" t="n">
-        <v>7.543965475803253</v>
+        <v>7.569914420035554</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.11927323383989</v>
+        <v>-4.102397255476905</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.109546442345257</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.54906874044532</v>
+        <v>-25.52165345829475</v>
       </c>
       <c r="F24" t="n">
-        <v>7.518618777501671</v>
+        <v>7.542106368799727</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.956247878854717</v>
+        <v>-3.936517778472236</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.133123077557784</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.65489382431499</v>
+        <v>-25.62486008159607</v>
       </c>
       <c r="F25" t="n">
-        <v>7.630322305347278</v>
+        <v>7.652265004910011</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.859325560917419</v>
+        <v>-3.841572398264038</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.094586383001803</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.98034228835462</v>
+        <v>-25.95403985194559</v>
       </c>
       <c r="F26" t="n">
-        <v>7.540116338767785</v>
+        <v>7.561561530822533</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.661068818985161</v>
+        <v>-3.643682240811349</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.002134885542236</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.90862265338764</v>
+        <v>-25.88053966379214</v>
       </c>
       <c r="F27" t="n">
-        <v>7.496702262544622</v>
+        <v>7.51610505535606</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.737855175151885</v>
+        <v>-3.722563365432749</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8659249175762409</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.8711132057461</v>
+        <v>-25.84557012290189</v>
       </c>
       <c r="F28" t="n">
-        <v>7.336845244847146</v>
+        <v>7.357792929393907</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.931673626420797</v>
+        <v>-3.923739690898711</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.6967443784088972</v>
       </c>
       <c r="E29" t="n">
-        <v>-25.82318228504254</v>
+        <v>-25.79639543342837</v>
       </c>
       <c r="F29" t="n">
-        <v>7.28924163171463</v>
+        <v>7.310582085346644</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.720625704612173</v>
+        <v>-3.70588377161239</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.5050521519239509</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.6805940147933</v>
+        <v>-25.64977473390388</v>
       </c>
       <c r="F30" t="n">
-        <v>7.386019934320669</v>
+        <v>7.410947678931316</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.887866781112382</v>
+        <v>-3.877366754233317</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.3044914963222091</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.33593914248486</v>
+        <v>-25.30331312380328</v>
       </c>
       <c r="F31" t="n">
-        <v>7.224644209493554</v>
+        <v>7.248262723820027</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.23866194345359</v>
+        <v>-4.229746085218375</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.1059664817346266</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.92787824751394</v>
+        <v>-24.8938513524283</v>
       </c>
       <c r="F32" t="n">
-        <v>7.327916294309089</v>
+        <v>7.35098493191621</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.191621299343268</v>
+        <v>-4.180427380413593</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.07980961416506786</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.76418518508384</v>
+        <v>-24.72899307504528</v>
       </c>
       <c r="F33" t="n">
-        <v>7.312231715504701</v>
+        <v>7.334410076518585</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.329064294575709</v>
+        <v>-4.32202063564686</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-0.2513525453637586</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.34970906172048</v>
+        <v>-24.31689975079911</v>
       </c>
       <c r="F34" t="n">
-        <v>7.416708292181675</v>
+        <v>7.442290651934408</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.370370510041354</v>
+        <v>-4.361873605497074</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-0.4086928201307222</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.21919189469131</v>
+        <v>-24.19243122768282</v>
       </c>
       <c r="F35" t="n">
-        <v>7.314509776199161</v>
+        <v>7.339646997655276</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.530725035246816</v>
+        <v>-4.526221283069262</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.5610110406151317</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.83985551215514</v>
+        <v>-23.81463973688198</v>
       </c>
       <c r="F36" t="n">
-        <v>7.445694650673257</v>
+        <v>7.475126147461457</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.49921186230678</v>
+        <v>-4.496685047858327</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.7143861796625025</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.28797567046786</v>
+        <v>-23.26679232446995</v>
       </c>
       <c r="F37" t="n">
-        <v>7.419012537481819</v>
+        <v>7.448156003607501</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.613965896714509</v>
+        <v>-4.613782604474725</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.8789179619788671</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.76910152424457</v>
+        <v>-22.74527353307263</v>
       </c>
       <c r="F38" t="n">
-        <v>7.355881453179016</v>
+        <v>7.382773043215921</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.552955765472066</v>
+        <v>-4.546278691022786</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.06010086406977</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.57329304294372</v>
+        <v>-22.55190022010034</v>
       </c>
       <c r="F39" t="n">
-        <v>7.533334525895771</v>
+        <v>7.561954299907784</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.733171314088425</v>
+        <v>-4.727279777809649</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.263347720299373</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.87453065567512</v>
+        <v>-21.85247012538681</v>
       </c>
       <c r="F40" t="n">
-        <v>7.777924927584897</v>
+        <v>7.808429993206119</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.717578381403929</v>
+        <v>-4.711398814462635</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.489045583163345</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.22328023541914</v>
+        <v>-21.20144227427913</v>
       </c>
       <c r="F41" t="n">
-        <v>7.776746620329142</v>
+        <v>7.807539716612882</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.734244882921447</v>
+        <v>-4.729178161721699</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.733575946527146</v>
       </c>
       <c r="E42" t="n">
-        <v>-20.50377964044924</v>
+        <v>-20.48215115615471</v>
       </c>
       <c r="F42" t="n">
-        <v>7.809634485067558</v>
+        <v>7.843150780342377</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.073702111001721</v>
+        <v>-5.071136019644742</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.988779011354491</v>
       </c>
       <c r="E43" t="n">
-        <v>-19.71638236294215</v>
+        <v>-19.68989663429334</v>
       </c>
       <c r="F43" t="n">
-        <v>7.908978879030576</v>
+        <v>7.943621112349782</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.226188162199304</v>
+        <v>-5.225454993240167</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.241884930826799</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.01348280797556</v>
+        <v>-18.98678760248128</v>
       </c>
       <c r="F44" t="n">
-        <v>7.725398608583893</v>
+        <v>7.761847579695258</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.051039334782693</v>
+        <v>-5.047491320712585</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.482405284926986</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.56886820347054</v>
+        <v>-18.54848348794597</v>
       </c>
       <c r="F45" t="n">
-        <v>7.745220355086266</v>
+        <v>7.782009726071516</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.268240638926928</v>
+        <v>-5.270793637981065</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.699629712975802</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.86137325020651</v>
+        <v>-17.83588253657367</v>
       </c>
       <c r="F46" t="n">
-        <v>7.872137138833958</v>
+        <v>7.910392847737482</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.407464187345843</v>
+        <v>-5.410292124759656</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-2.889902520721358</v>
       </c>
       <c r="E47" t="n">
-        <v>-17.69258728197097</v>
+        <v>-17.67056602859119</v>
       </c>
       <c r="F47" t="n">
-        <v>7.736029558491374</v>
+        <v>7.771981022094754</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.696738618633781</v>
+        <v>-5.700430648035147</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.049159609802344</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.07142297364528</v>
+        <v>-17.04886493584899</v>
       </c>
       <c r="F48" t="n">
-        <v>7.7013349559608</v>
+        <v>7.740009618555259</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.78865967688554</v>
+        <v>-5.792390983195431</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.181995905562564</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.23110660805193</v>
+        <v>-16.2041757411065</v>
       </c>
       <c r="F49" t="n">
-        <v>7.653469496771449</v>
+        <v>7.691227698166988</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.04511170494927</v>
+        <v>-6.055101132017507</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.290916624507684</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.67042873885502</v>
+        <v>-15.64357642572664</v>
       </c>
       <c r="F50" t="n">
-        <v>7.400552390474985</v>
+        <v>7.437079915403401</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.266096684614764</v>
+        <v>-6.275562419569332</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.388053558982941</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.95238138950055</v>
+        <v>-14.92387944621411</v>
       </c>
       <c r="F51" t="n">
-        <v>7.26564930199384</v>
+        <v>7.301129442694918</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.227042345237895</v>
+        <v>-6.235382142148074</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.48119307740202</v>
       </c>
       <c r="E52" t="n">
-        <v>-14.3037756144186</v>
+        <v>-14.27380733321389</v>
       </c>
       <c r="F52" t="n">
-        <v>7.156695157744996</v>
+        <v>7.191730160149454</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.443615218845728</v>
+        <v>-6.45880229014213</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.586760202471137</v>
       </c>
       <c r="E53" t="n">
-        <v>-13.80841524409905</v>
+        <v>-13.77891828579664</v>
       </c>
       <c r="F53" t="n">
-        <v>7.185524408602476</v>
+        <v>7.219747688230748</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.485039265036949</v>
+        <v>-6.495866599487057</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.713328464067129</v>
       </c>
       <c r="E54" t="n">
-        <v>-13.33789097227026</v>
+        <v>-13.30832855245364</v>
       </c>
       <c r="F54" t="n">
-        <v>6.964316859788672</v>
+        <v>6.996916693864571</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.699320985647479</v>
+        <v>-6.708053551642911</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.874667125096497</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.74189007000636</v>
+        <v>-12.71158138892777</v>
       </c>
       <c r="F55" t="n">
-        <v>6.961515106980543</v>
+        <v>6.995424171340614</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.002447073341963</v>
+        <v>-7.014138499779625</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.075173501175522</v>
       </c>
       <c r="E56" t="n">
-        <v>-12.47292180042594</v>
+        <v>-12.44386998042015</v>
       </c>
       <c r="F56" t="n">
-        <v>6.979739592536226</v>
+        <v>7.013020226359894</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.982677696050957</v>
+        <v>-6.993125353718654</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.319949047577517</v>
       </c>
       <c r="E57" t="n">
-        <v>-12.02962951850794</v>
+        <v>-12.00027657553679</v>
       </c>
       <c r="F57" t="n">
-        <v>6.649342238022427</v>
+        <v>6.679271242318613</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.229258127772026</v>
+        <v>-7.240321123673284</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.606482897933677</v>
       </c>
       <c r="E58" t="n">
-        <v>-11.60498067583655</v>
+        <v>-11.57620379419044</v>
       </c>
       <c r="F58" t="n">
-        <v>6.786863787071917</v>
+        <v>6.819542174964866</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.920073487215702</v>
+        <v>-7.932838482486384</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.930013783719429</v>
       </c>
       <c r="E59" t="n">
-        <v>-11.52503907468497</v>
+        <v>-11.49965309947487</v>
       </c>
       <c r="F59" t="n">
-        <v>6.644786116633506</v>
+        <v>6.67576250515703</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.961707010252391</v>
+        <v>-7.970374114733613</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.282647369959792</v>
       </c>
       <c r="E60" t="n">
-        <v>-11.27983333476229</v>
+        <v>-11.25186817589236</v>
       </c>
       <c r="F60" t="n">
-        <v>6.510590012505814</v>
+        <v>6.541618770240705</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.198795522413208</v>
+        <v>-8.210892810238963</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.653784855796075</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.32585277925095</v>
+        <v>-11.30207715729038</v>
       </c>
       <c r="F61" t="n">
-        <v>6.348873887804814</v>
+        <v>6.37744129260546</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.659186351842505</v>
+        <v>-8.676114699416857</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.035210081159975</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.35486532234822</v>
+        <v>-11.33245129988318</v>
       </c>
       <c r="F62" t="n">
-        <v>6.326224203888628</v>
+        <v>6.355629516071144</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.869435643177784</v>
+        <v>-8.884622714474187</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.415569126829342</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.00386068316154</v>
+        <v>-10.97996723047539</v>
       </c>
       <c r="F63" t="n">
-        <v>6.613024189939479</v>
+        <v>6.644026763068686</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.904117153405517</v>
+        <v>-8.916109702808537</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.790011290909715</v>
       </c>
       <c r="E64" t="n">
-        <v>-10.80196428103929</v>
+        <v>-10.77902656646058</v>
       </c>
       <c r="F64" t="n">
-        <v>6.46269836871078</v>
+        <v>6.494250818559339</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.107506078051731</v>
+        <v>-9.120048504174104</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.148899321052288</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.85168884723216</v>
+        <v>-10.83447246899529</v>
       </c>
       <c r="F65" t="n">
-        <v>6.429155888830278</v>
+        <v>6.461729538300492</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.175651514342915</v>
+        <v>-9.190602924188166</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.491069955440598</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.57523178042627</v>
+        <v>-10.55547549543811</v>
       </c>
       <c r="F66" t="n">
-        <v>6.285245295994025</v>
+        <v>6.316064576883448</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.529379352520669</v>
+        <v>-9.546268423186497</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.807917151672393</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.81313201536328</v>
+        <v>-10.79697611365659</v>
       </c>
       <c r="F67" t="n">
-        <v>6.035103757900007</v>
+        <v>6.064666177716624</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.576904411836136</v>
+        <v>-9.59400295934743</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.101293339271402</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.92397145122133</v>
+        <v>-10.9093080720386</v>
       </c>
       <c r="F68" t="n">
-        <v>6.003551308051446</v>
+        <v>6.033820712221518</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.407607843789776</v>
+        <v>-9.425020606569271</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.365126140240369</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.72125023402004</v>
+        <v>-10.7028817331331</v>
       </c>
       <c r="F69" t="n">
-        <v>6.022980285468568</v>
+        <v>6.059010302888998</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.440993216036178</v>
+        <v>-9.462386038879558</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.604580227169166</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.96180820643392</v>
+        <v>-10.94487985885957</v>
       </c>
       <c r="F70" t="n">
-        <v>5.792372463214406</v>
+        <v>5.82274660580721</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.509164836933044</v>
+        <v>-9.53127773643272</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.816254866947295</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.9415020447264</v>
+        <v>-10.92488791242025</v>
       </c>
       <c r="F71" t="n">
-        <v>5.521047579122475</v>
+        <v>5.553647413198372</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.487261414278837</v>
+        <v>-9.510212221160383</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.006496707690493</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.00460694442352</v>
+        <v>-10.99027087281183</v>
       </c>
       <c r="F72" t="n">
-        <v>5.704889695625992</v>
+        <v>5.737699006547357</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.721757650476993</v>
+        <v>-9.747091256475732</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-9.173450987723553</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.43716353801131</v>
+        <v>-11.42679443416066</v>
       </c>
       <c r="F73" t="n">
-        <v>5.800882460061527</v>
+        <v>5.832670571361239</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.505053853840742</v>
+        <v>-9.533110658830562</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-9.322079201898701</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.56144876888781</v>
+        <v>-11.54645808213404</v>
       </c>
       <c r="F74" t="n">
-        <v>5.799782706622822</v>
+        <v>5.834686785998864</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.557383788299122</v>
+        <v>-9.583424378651316</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-9.452262776553974</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.07113211851621</v>
+        <v>-12.05932286135297</v>
       </c>
       <c r="F75" t="n">
-        <v>5.73840599090081</v>
+        <v>5.773414808699586</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.676563021067354</v>
+        <v>-9.704646010662858</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-9.565704802764959</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.02999610298751</v>
+        <v>-12.01692998475146</v>
       </c>
       <c r="F76" t="n">
-        <v>5.634007968040887</v>
+        <v>5.667524263315705</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.695599229399225</v>
+        <v>-9.724716510919222</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-9.662578197810586</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.68302707642996</v>
+        <v>-12.67204263434575</v>
       </c>
       <c r="F77" t="n">
-        <v>5.622696218385635</v>
+        <v>5.65686712880254</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.467321837050889</v>
+        <v>-9.499751471189844</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-9.739543965445549</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.37711551158407</v>
+        <v>-13.36588231574587</v>
       </c>
       <c r="F78" t="n">
-        <v>5.687791148114697</v>
+        <v>5.725994487806854</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.907913921229618</v>
+        <v>-8.9337319424335</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.795714958361417</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.68927528823934</v>
+        <v>-13.67742675416758</v>
       </c>
       <c r="F79" t="n">
-        <v>5.87333526398764</v>
+        <v>5.914078510431091</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.059758449587957</v>
+        <v>-9.089386330918781</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.823125300355274</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.27253737983824</v>
+        <v>-14.26202426065633</v>
       </c>
       <c r="F80" t="n">
-        <v>5.892790426010444</v>
+        <v>5.933926441539148</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.511295698942368</v>
+        <v>-8.536079428221754</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.819401297268982</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.85531505623199</v>
+        <v>-14.84785244361221</v>
       </c>
       <c r="F81" t="n">
-        <v>5.957780617316772</v>
+        <v>5.999361771142095</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.381760454626329</v>
+        <v>-8.410039828764457</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.773875786149151</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.70839641709602</v>
+        <v>-15.70116946592739</v>
       </c>
       <c r="F82" t="n">
-        <v>5.955162156748427</v>
+        <v>5.994988941992958</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.271562541607521</v>
+        <v>-8.300287054042268</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-9.683601025598527</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.7408423268917</v>
+        <v>-16.73813222020346</v>
       </c>
       <c r="F83" t="n">
-        <v>6.12106781835878</v>
+        <v>6.165922047894534</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.113577723216412</v>
+        <v>-8.144239896471735</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-9.538419341719289</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.70294329351878</v>
+        <v>-17.70416087768306</v>
       </c>
       <c r="F84" t="n">
-        <v>6.050945444338495</v>
+        <v>6.094411889773026</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.756799378476535</v>
+        <v>-7.783756430027649</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-9.33621742877269</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.56820049602561</v>
+        <v>-18.56931334176716</v>
       </c>
       <c r="F85" t="n">
-        <v>6.297290214608413</v>
+        <v>6.347669395943375</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.558058221339134</v>
+        <v>-7.585499688095392</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-9.070655065674151</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.84248742391365</v>
+        <v>-19.84395376183193</v>
       </c>
       <c r="F86" t="n">
-        <v>6.172625306949497</v>
+        <v>6.221119196675251</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.546916671620825</v>
+        <v>-7.575025845822011</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-8.742728200488219</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.89886606330401</v>
+        <v>-20.90000509365123</v>
       </c>
       <c r="F87" t="n">
-        <v>6.230283808664459</v>
+        <v>6.279903636434601</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.070199740547896</v>
+        <v>-7.095088208250017</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.354186912143884</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.30363088131269</v>
+        <v>-22.30871069481528</v>
       </c>
       <c r="F88" t="n">
-        <v>6.516795764052792</v>
+        <v>6.567777191318473</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.130162487563001</v>
+        <v>-7.152327756274043</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.91179934097669</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.90166427387093</v>
+        <v>-23.90603710302006</v>
       </c>
       <c r="F89" t="n">
-        <v>6.36644375821841</v>
+        <v>6.417739400752293</v>
       </c>
       <c r="G89" t="n">
-        <v>-6.810710298224885</v>
+        <v>-6.82750772277082</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.427424155304379</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.2372100867554</v>
+        <v>-25.24001183956354</v>
       </c>
       <c r="F90" t="n">
-        <v>6.62425738577768</v>
+        <v>6.676705150961634</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.187991189214905</v>
+        <v>-7.211609703541379</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.912035214790667</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.97305305902566</v>
+        <v>-26.97882676457886</v>
       </c>
       <c r="F91" t="n">
-        <v>6.740778881069041</v>
+        <v>6.798856336474938</v>
       </c>
       <c r="G91" t="n">
-        <v>-6.739684555308521</v>
+        <v>-6.75560479556406</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.384767482486152</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.95792472364838</v>
+        <v>-28.96665728964381</v>
       </c>
       <c r="F92" t="n">
-        <v>6.500325647077901</v>
+        <v>6.556255964817755</v>
       </c>
       <c r="G92" t="n">
-        <v>-6.990938939144086</v>
+        <v>-7.010223901229948</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.856097186029774</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.8185766189088</v>
+        <v>-30.82873624591398</v>
       </c>
       <c r="F93" t="n">
-        <v>6.498623647708476</v>
+        <v>6.555260949801784</v>
       </c>
       <c r="G93" t="n">
-        <v>-6.355700405263537</v>
+        <v>-6.369054554162098</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-5.346482157040731</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.82654310574433</v>
+        <v>-32.84091845426455</v>
       </c>
       <c r="F94" t="n">
-        <v>6.488830605182866</v>
+        <v>6.542299569988475</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.662950568353164</v>
+        <v>-6.678569685643343</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.86130890507936</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.11867802575952</v>
+        <v>-35.13569801945376</v>
       </c>
       <c r="F95" t="n">
-        <v>6.422531183592365</v>
+        <v>6.477204640259413</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.114841309884302</v>
+        <v>-6.122591953166604</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.411916614352989</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.52618231841601</v>
+        <v>-37.54533635747345</v>
       </c>
       <c r="F96" t="n">
-        <v>6.2136042148441</v>
+        <v>6.271655485644313</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.07212112571175</v>
+        <v>-6.080382368804879</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.994182898056306</v>
       </c>
       <c r="E97" t="n">
-        <v>-39.53650541976304</v>
+        <v>-39.55766258115527</v>
       </c>
       <c r="F97" t="n">
-        <v>6.124890770788564</v>
+        <v>6.180663980894317</v>
       </c>
       <c r="G97" t="n">
-        <v>-5.67754530266781</v>
+        <v>-5.679666255728169</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.603763887312282</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.95955027589265</v>
+        <v>-41.98058960655931</v>
       </c>
       <c r="F98" t="n">
-        <v>6.04036686364238</v>
+        <v>6.095066504915112</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.862395526490141</v>
+        <v>-5.865995909771615</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.232369478779563</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.26561540613144</v>
+        <v>-44.28342093799619</v>
       </c>
       <c r="F99" t="n">
-        <v>5.886479936040732</v>
+        <v>5.941362869553248</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.607998989972561</v>
+        <v>-5.60450334511382</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.863787437531938</v>
       </c>
       <c r="E100" t="n">
-        <v>-46.40559158252009</v>
+        <v>-46.4206870076966</v>
       </c>
       <c r="F100" t="n">
-        <v>5.625864555673333</v>
+        <v>5.676453213853763</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.674023473203386</v>
+        <v>-5.674311503865904</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.502629820302547</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.84552550931553</v>
+        <v>-48.86547817884632</v>
       </c>
       <c r="F101" t="n">
-        <v>5.567551438816285</v>
+        <v>5.619370773463837</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.721705640152952</v>
+        <v>-5.721574717124535</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.119788717459483</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.25377606323399</v>
+        <v>-51.27203982569819</v>
       </c>
       <c r="F102" t="n">
-        <v>4.9279400757866</v>
+        <v>4.975360396679331</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.414337646337749</v>
+        <v>-5.406207326273037</v>
       </c>
     </row>
   </sheetData>
